--- a/Agrupamiento/Parametros_grupos.xlsx
+++ b/Agrupamiento/Parametros_grupos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e5ab4397a9452b8/Documentos/DATOS_VIAJES_MOTOS/Agrupamiento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_2BB1D69C5BA05B09CBDB3A11594B283076CBE677" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C1C7B6D-1EC9-40E1-A012-8E04467182C8}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_2BB1D69C5BA05B09CBDB3A11594B283076CBE677" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1618489A-C7F0-465D-B8C5-4491018EFE13}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,12 +115,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -150,12 +156,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +475,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,25 +491,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -510,25 +520,25 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>124.59122000000001</v>
       </c>
       <c r="C2" s="2">
         <v>195.68889999999999</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>307.92561999999998</v>
       </c>
       <c r="E2" s="2">
         <v>420.62063000000001</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>963.14836000000003</v>
       </c>
       <c r="G2" s="2">
         <v>927.64624000000003</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>8758.5312599999997</v>
       </c>
       <c r="I2" s="2">
@@ -539,25 +549,25 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>50.380409999999998</v>
       </c>
       <c r="C3" s="2">
         <v>42.375700000000002</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>78.574179999999998</v>
       </c>
       <c r="E3" s="2">
         <v>70.051779999999994</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>132.98132000000001</v>
       </c>
       <c r="G3" s="2">
         <v>104.65033</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>658.91304000000002</v>
       </c>
       <c r="I3" s="2">
@@ -568,25 +578,25 @@
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>6.00162</v>
       </c>
       <c r="C4" s="2">
         <v>5.5503299999999998</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>9.6887100000000004</v>
       </c>
       <c r="E4" s="2">
         <v>8.0346100000000007</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>23.459679999999999</v>
       </c>
       <c r="G4" s="2">
         <v>8.7309099999999997</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>47.312330000000003</v>
       </c>
       <c r="I4" s="2">
@@ -597,25 +607,25 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>16.28612</v>
       </c>
       <c r="C5" s="2">
         <v>13.652010000000001</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>22.999300000000002</v>
       </c>
       <c r="E5" s="2">
         <v>16.411549999999998</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>49.149209999999997</v>
       </c>
       <c r="G5" s="2">
         <v>13.807259999999999</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>80.049199999999999</v>
       </c>
       <c r="I5" s="2">
@@ -626,25 +636,25 @@
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>0.37342999999999998</v>
       </c>
       <c r="C6" s="2">
         <v>0.19231999999999999</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>0.36765999999999999</v>
       </c>
       <c r="E6" s="2">
         <v>0.16608000000000001</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>0.60002999999999995</v>
       </c>
       <c r="G6" s="2">
         <v>0.23866000000000001</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>0.36220000000000002</v>
       </c>
       <c r="I6" s="2">
@@ -655,25 +665,25 @@
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>0.81205000000000005</v>
       </c>
       <c r="C7" s="2">
         <v>0.40289000000000003</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>0.91139999999999999</v>
       </c>
       <c r="E7" s="2">
         <v>0.40508</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>1.5965499999999999</v>
       </c>
       <c r="G7" s="2">
         <v>0.44169999999999998</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>1.7887</v>
       </c>
       <c r="I7" s="2">
@@ -684,25 +694,25 @@
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>-0.19364999999999999</v>
       </c>
       <c r="C8" s="2">
         <v>0.13289999999999999</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>-0.23047999999999999</v>
       </c>
       <c r="E8" s="2">
         <v>0.13672999999999999</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>-0.46200000000000002</v>
       </c>
       <c r="G8" s="2">
         <v>0.17756</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>-0.36408000000000001</v>
       </c>
       <c r="I8" s="2">
@@ -713,25 +723,25 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>-0.75775000000000003</v>
       </c>
       <c r="C9" s="2">
         <v>0.36093999999999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>-0.86543000000000003</v>
       </c>
       <c r="E9" s="2">
         <v>0.37918000000000002</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>-1.5228900000000001</v>
       </c>
       <c r="G9" s="2">
         <v>0.42951</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>-1.7842199999999999</v>
       </c>
       <c r="I9" s="2">
@@ -742,25 +752,25 @@
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>49.234529999999999</v>
       </c>
       <c r="C10" s="2">
         <v>26.12125</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>38.003990000000002</v>
       </c>
       <c r="E10" s="2">
         <v>27.280069999999998</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>16.692830000000001</v>
       </c>
       <c r="G10" s="2">
         <v>15.24446</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>2.80701</v>
       </c>
       <c r="I10" s="2">
@@ -771,25 +781,25 @@
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>55.60501</v>
       </c>
       <c r="C11" s="2">
         <v>25.944230000000001</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>65.421490000000006</v>
       </c>
       <c r="E11" s="2">
         <v>26.447430000000001</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>84.666690000000003</v>
       </c>
       <c r="G11" s="2">
         <v>14.982900000000001</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>97.36994</v>
       </c>
       <c r="I11" s="2">
@@ -800,25 +810,25 @@
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>0.10478999999999999</v>
       </c>
       <c r="C12" s="2">
         <v>0.52217999999999998</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>3.1554700000000002</v>
       </c>
       <c r="E12" s="2">
         <v>4.0011700000000001</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>1.4392499999999999</v>
       </c>
       <c r="G12" s="2">
         <v>1.66808</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>1.70597</v>
       </c>
       <c r="I12" s="2">
@@ -829,25 +839,25 @@
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>0.10986</v>
       </c>
       <c r="C13" s="2">
         <v>0.55771999999999999</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>4.2051100000000003</v>
       </c>
       <c r="E13" s="2">
         <v>5.54908</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>2.2102300000000001</v>
       </c>
       <c r="G13" s="2">
         <v>2.6715100000000001</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>5.3160100000000003</v>
       </c>
       <c r="I13" s="2">
@@ -858,25 +868,25 @@
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>-3.9757899999999999</v>
       </c>
       <c r="C14" s="2">
         <v>7.1913999999999998</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>-0.88092000000000004</v>
       </c>
       <c r="E14" s="2">
         <v>1.83308</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>-1.7620199999999999</v>
       </c>
       <c r="G14" s="2">
         <v>1.7189099999999999</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>-1.6813800000000001</v>
       </c>
       <c r="I14" s="2">
@@ -887,25 +897,25 @@
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="4">
         <v>-4.6332599999999999</v>
       </c>
       <c r="C15" s="2">
         <v>8.1665299999999998</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>-1.11565</v>
       </c>
       <c r="E15" s="2">
         <v>2.38706</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>-3.0093100000000002</v>
       </c>
       <c r="G15" s="2">
         <v>3.4286500000000002</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <v>-4.8095499999999998</v>
       </c>
       <c r="I15" s="2">
@@ -916,25 +926,25 @@
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>2.5206499999999998</v>
       </c>
       <c r="C16" s="2">
         <v>8.7861499999999992</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>89.919049999999999</v>
       </c>
       <c r="E16" s="2">
         <v>24.243169999999999</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>46.353290000000001</v>
       </c>
       <c r="G16" s="2">
         <v>32.525970000000001</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>50.139229999999998</v>
       </c>
       <c r="I16" s="2">
@@ -945,25 +955,25 @@
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="4">
         <v>102.31889</v>
       </c>
       <c r="C17" s="2">
         <v>13.188639999999999</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>13.510590000000001</v>
       </c>
       <c r="E17" s="2">
         <v>22.63157</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>55.009</v>
       </c>
       <c r="G17" s="2">
         <v>32.380310000000001</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="4">
         <v>50.037709999999997</v>
       </c>
       <c r="I17" s="2">
